--- a/Hardware/simulations/LTC simulering skarakteristikk for effektivitet.xlsx
+++ b/Hardware/simulations/LTC simulering skarakteristikk for effektivitet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb18673bf6d29142/Documents/GitHub/Bachelor-Nordic_Semi/Hardware/simulations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\OneDrive\Documents\GitHub\Bachelor-Nordic_Semi\Hardware\simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D740963-7C17-491F-A0F9-231541AD093A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{6A5BFC80-7EF3-446D-B6B8-DEF0F53DC32E}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1D740963-7C17-491F-A0F9-231541AD093A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{8074269D-3493-4C90-B66D-F9A6CC02E150}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760" xr2:uid="{5F7A1D3E-F148-4B65-AF58-3A0E6774C2C0}"/>
   </bookViews>
@@ -195,9 +195,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="nb-NO"/>
-              <a:t>Suply voltage</a:t>
+              <a:rPr lang="nb-NO" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Simulated Efficiency vs VIN for ILOAD = 100mA</a:t>
             </a:r>
+            <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -664,14 +665,72 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Efficiency (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nb-NO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1335,16 +1394,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>739775</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>136524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>739775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1671,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A132A0D1-8368-4710-BDEE-96569E3A32DA}">
   <dimension ref="B10:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
